--- a/branches/master/StructureDefinition-rendering-settings.xlsx
+++ b/branches/master/StructureDefinition-rendering-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T18:30:43+00:00</t>
+    <t>2022-05-03T19:45:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-rendering-settings.xlsx
+++ b/branches/master/StructureDefinition-rendering-settings.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2587" uniqueCount="146">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-03T19:45:57+00:00</t>
+    <t>2022-05-04T13:14:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -309,6 +309,9 @@
     <t>id</t>
   </si>
   <si>
+    <t>id : Uniquely identifies the specific redering settings instance. Must be Unique.</t>
+  </si>
+  <si>
     <t>An Extension</t>
   </si>
   <si>
@@ -359,7 +362,13 @@
     <t>label</t>
   </si>
   <si>
+    <t>label: text used for describing the rendering settings instance</t>
+  </si>
+  <si>
     <t>hidden</t>
+  </si>
+  <si>
+    <t>hidden : Kids if the rendering settings are hidden or not Boolean value.</t>
   </si>
   <si>
     <t xml:space="preserve">boolean
@@ -369,19 +378,37 @@
     <t>description</t>
   </si>
   <si>
+    <t>description : Human readable explanation of what the rendering settings are for.</t>
+  </si>
+  <si>
     <t>pattern</t>
   </si>
   <si>
+    <t>pattern : Describes the specific regular expression pattern used within a rendering setting.</t>
+  </si>
+  <si>
     <t>unique</t>
   </si>
   <si>
+    <t>unique : Indicates of the value of the setting is to be distinctive</t>
+  </si>
+  <si>
     <t>disabled</t>
   </si>
   <si>
+    <t>disabled : Indicates if the specific rendering settings is enabled or disabled</t>
+  </si>
+  <si>
     <t>type</t>
   </si>
   <si>
+    <t>type : Indicates the UIUX specific display component to be used example text, checkbox, text area.</t>
+  </si>
+  <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>value : Contains the value entered by the end user for this specific rendering setting</t>
   </si>
   <si>
     <t>boolean
@@ -391,7 +418,13 @@
     <t>required</t>
   </si>
   <si>
+    <t>required : Indicates if the specific rendering setting is or is not required</t>
+  </si>
+  <si>
     <t>maxLength</t>
+  </si>
+  <si>
+    <t>maxLength : Indicates the maximum length of the rendering setting value</t>
   </si>
   <si>
     <t xml:space="preserve">integer
@@ -401,7 +434,13 @@
     <t>minLength</t>
   </si>
   <si>
+    <t>minLength : Indicates minimum length of the rendering setting value</t>
+  </si>
+  <si>
     <t>maxValue</t>
+  </si>
+  <si>
+    <t>maxValue : Indicates the maximum value that can be held within the rendering settings value</t>
   </si>
   <si>
     <t>date
@@ -411,7 +450,13 @@
     <t>minValue</t>
   </si>
   <si>
+    <t>minValue : Indicates the  minimum value that can be held within the rendering settings value</t>
+  </si>
+  <si>
     <t>version</t>
+  </si>
+  <si>
+    <t>version : Indicates the version number of the widget used to display the rendering settings and votes</t>
   </si>
   <si>
     <t xml:space="preserve">id
@@ -751,7 +796,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="44.2578125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="94.3046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1221,10 +1266,10 @@
         <v>87</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -1295,7 +1340,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1395,7 +1440,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
@@ -1424,7 +1469,7 @@
         <v>27</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -1495,7 +1540,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
@@ -1518,16 +1563,16 @@
         <v>73</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -1577,7 +1622,7 @@
         <v>73</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>79</v>
@@ -1592,12 +1637,12 @@
         <v>73</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -1623,10 +1668,10 @@
         <v>80</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -1677,7 +1722,7 @@
         <v>73</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>74</v>
@@ -1689,10 +1734,10 @@
         <v>73</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
@@ -1700,7 +1745,7 @@
         <v>85</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>73</v>
@@ -1725,10 +1770,10 @@
         <v>87</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -1799,7 +1844,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1899,7 +1944,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1928,7 +1973,7 @@
         <v>27</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1999,7 +2044,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2022,16 +2067,16 @@
         <v>73</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2039,7 +2084,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>73</v>
@@ -2081,7 +2126,7 @@
         <v>73</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>79</v>
@@ -2096,12 +2141,12 @@
         <v>73</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2127,10 +2172,10 @@
         <v>80</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2181,7 +2226,7 @@
         <v>73</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>74</v>
@@ -2193,10 +2238,10 @@
         <v>73</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15">
@@ -2204,7 +2249,7 @@
         <v>85</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>73</v>
@@ -2229,10 +2274,10 @@
         <v>87</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2303,7 +2348,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2403,7 +2448,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2432,7 +2477,7 @@
         <v>27</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2503,7 +2548,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2526,16 +2571,16 @@
         <v>73</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -2543,7 +2588,7 @@
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="R18" t="s" s="2">
         <v>73</v>
@@ -2585,7 +2630,7 @@
         <v>73</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>79</v>
@@ -2600,12 +2645,12 @@
         <v>73</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2628,13 +2673,13 @@
         <v>73</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2685,7 +2730,7 @@
         <v>73</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>74</v>
@@ -2697,10 +2742,10 @@
         <v>73</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20">
@@ -2708,7 +2753,7 @@
         <v>85</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>73</v>
@@ -2733,10 +2778,10 @@
         <v>87</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2807,7 +2852,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2907,7 +2952,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -2936,7 +2981,7 @@
         <v>27</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3007,7 +3052,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3030,16 +3075,16 @@
         <v>73</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -3047,7 +3092,7 @@
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="R23" t="s" s="2">
         <v>73</v>
@@ -3089,7 +3134,7 @@
         <v>73</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>79</v>
@@ -3104,12 +3149,12 @@
         <v>73</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3135,10 +3180,10 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -3189,7 +3234,7 @@
         <v>73</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>74</v>
@@ -3201,10 +3246,10 @@
         <v>73</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25">
@@ -3212,7 +3257,7 @@
         <v>85</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>73</v>
@@ -3237,10 +3282,10 @@
         <v>87</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -3311,7 +3356,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3411,7 +3456,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3440,7 +3485,7 @@
         <v>27</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -3511,7 +3556,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3534,16 +3579,16 @@
         <v>73</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -3551,7 +3596,7 @@
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>73</v>
@@ -3593,7 +3638,7 @@
         <v>73</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>79</v>
@@ -3608,12 +3653,12 @@
         <v>73</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3639,10 +3684,10 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -3693,7 +3738,7 @@
         <v>73</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>74</v>
@@ -3705,10 +3750,10 @@
         <v>73</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30">
@@ -3716,7 +3761,7 @@
         <v>85</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>73</v>
@@ -3741,10 +3786,10 @@
         <v>87</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -3815,7 +3860,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -3915,7 +3960,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -3944,7 +3989,7 @@
         <v>27</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4015,7 +4060,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4038,16 +4083,16 @@
         <v>73</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -4055,7 +4100,7 @@
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="R33" t="s" s="2">
         <v>73</v>
@@ -4097,7 +4142,7 @@
         <v>73</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>79</v>
@@ -4112,12 +4157,12 @@
         <v>73</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4140,13 +4185,13 @@
         <v>73</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4197,7 +4242,7 @@
         <v>73</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>74</v>
@@ -4209,10 +4254,10 @@
         <v>73</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
@@ -4220,7 +4265,7 @@
         <v>85</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>73</v>
@@ -4245,10 +4290,10 @@
         <v>87</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -4319,7 +4364,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -4419,7 +4464,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -4448,7 +4493,7 @@
         <v>27</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -4519,7 +4564,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -4542,16 +4587,16 @@
         <v>73</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -4559,7 +4604,7 @@
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="R38" t="s" s="2">
         <v>73</v>
@@ -4601,7 +4646,7 @@
         <v>73</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>79</v>
@@ -4616,12 +4661,12 @@
         <v>73</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -4644,13 +4689,13 @@
         <v>73</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -4701,7 +4746,7 @@
         <v>73</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>74</v>
@@ -4713,10 +4758,10 @@
         <v>73</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40">
@@ -4724,7 +4769,7 @@
         <v>85</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>73</v>
@@ -4749,10 +4794,10 @@
         <v>87</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -4823,7 +4868,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -4923,7 +4968,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -4952,7 +4997,7 @@
         <v>27</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -5023,7 +5068,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5046,16 +5091,16 @@
         <v>73</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -5063,7 +5108,7 @@
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="R43" t="s" s="2">
         <v>73</v>
@@ -5105,7 +5150,7 @@
         <v>73</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>79</v>
@@ -5120,12 +5165,12 @@
         <v>73</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5151,10 +5196,10 @@
         <v>80</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -5205,7 +5250,7 @@
         <v>73</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>74</v>
@@ -5217,10 +5262,10 @@
         <v>73</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45">
@@ -5228,7 +5273,7 @@
         <v>85</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>73</v>
@@ -5253,10 +5298,10 @@
         <v>87</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -5327,7 +5372,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -5427,7 +5472,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -5456,7 +5501,7 @@
         <v>27</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -5527,7 +5572,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -5550,16 +5595,16 @@
         <v>73</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -5567,7 +5612,7 @@
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="R48" t="s" s="2">
         <v>73</v>
@@ -5609,7 +5654,7 @@
         <v>73</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>79</v>
@@ -5624,12 +5669,12 @@
         <v>73</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -5652,13 +5697,13 @@
         <v>73</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -5709,7 +5754,7 @@
         <v>73</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>74</v>
@@ -5721,10 +5766,10 @@
         <v>73</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50">
@@ -5732,7 +5777,7 @@
         <v>85</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>73</v>
@@ -5757,10 +5802,10 @@
         <v>87</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -5831,7 +5876,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -5931,7 +5976,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -5960,7 +6005,7 @@
         <v>27</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6031,7 +6076,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -6054,16 +6099,16 @@
         <v>73</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -6071,7 +6116,7 @@
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="R53" t="s" s="2">
         <v>73</v>
@@ -6113,7 +6158,7 @@
         <v>73</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>79</v>
@@ -6128,12 +6173,12 @@
         <v>73</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -6156,13 +6201,13 @@
         <v>73</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -6213,7 +6258,7 @@
         <v>73</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>74</v>
@@ -6225,10 +6270,10 @@
         <v>73</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55">
@@ -6236,7 +6281,7 @@
         <v>85</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>73</v>
@@ -6261,10 +6306,10 @@
         <v>87</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -6335,7 +6380,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -6435,7 +6480,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -6464,7 +6509,7 @@
         <v>27</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -6535,7 +6580,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -6558,16 +6603,16 @@
         <v>73</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -6575,7 +6620,7 @@
       </c>
       <c r="P58" s="2"/>
       <c r="Q58" t="s" s="2">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="R58" t="s" s="2">
         <v>73</v>
@@ -6617,7 +6662,7 @@
         <v>73</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>79</v>
@@ -6632,12 +6677,12 @@
         <v>73</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -6660,13 +6705,13 @@
         <v>73</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -6717,7 +6762,7 @@
         <v>73</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>74</v>
@@ -6729,10 +6774,10 @@
         <v>73</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60">
@@ -6740,7 +6785,7 @@
         <v>85</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>73</v>
@@ -6765,10 +6810,10 @@
         <v>87</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -6839,7 +6884,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -6939,7 +6984,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -6968,7 +7013,7 @@
         <v>27</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -7039,7 +7084,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -7062,16 +7107,16 @@
         <v>73</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -7079,7 +7124,7 @@
       </c>
       <c r="P63" s="2"/>
       <c r="Q63" t="s" s="2">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="R63" t="s" s="2">
         <v>73</v>
@@ -7121,7 +7166,7 @@
         <v>73</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>79</v>
@@ -7136,12 +7181,12 @@
         <v>73</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -7164,13 +7209,13 @@
         <v>73</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -7221,7 +7266,7 @@
         <v>73</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>74</v>
@@ -7233,10 +7278,10 @@
         <v>73</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65">
@@ -7244,7 +7289,7 @@
         <v>85</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>73</v>
@@ -7269,10 +7314,10 @@
         <v>87</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -7343,7 +7388,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -7443,7 +7488,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -7472,7 +7517,7 @@
         <v>27</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -7543,7 +7588,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -7566,16 +7611,16 @@
         <v>73</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -7583,7 +7628,7 @@
       </c>
       <c r="P68" s="2"/>
       <c r="Q68" t="s" s="2">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>73</v>
@@ -7625,7 +7670,7 @@
         <v>73</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>79</v>
@@ -7640,12 +7685,12 @@
         <v>73</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -7668,13 +7713,13 @@
         <v>73</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -7725,7 +7770,7 @@
         <v>73</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>74</v>
@@ -7737,10 +7782,10 @@
         <v>73</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70">
@@ -7748,7 +7793,7 @@
         <v>85</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="C70" t="s" s="2">
         <v>73</v>
@@ -7773,10 +7818,10 @@
         <v>87</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -7847,7 +7892,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -7947,7 +7992,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -7976,7 +8021,7 @@
         <v>27</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -8047,7 +8092,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -8070,16 +8115,16 @@
         <v>73</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -8087,7 +8132,7 @@
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="R73" t="s" s="2">
         <v>73</v>
@@ -8129,7 +8174,7 @@
         <v>73</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>79</v>
@@ -8144,12 +8189,12 @@
         <v>73</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -8172,13 +8217,13 @@
         <v>73</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -8229,7 +8274,7 @@
         <v>73</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>74</v>
@@ -8241,10 +8286,10 @@
         <v>73</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75">
@@ -8252,7 +8297,7 @@
         <v>85</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>73</v>
@@ -8277,10 +8322,10 @@
         <v>87</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -8351,7 +8396,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -8451,7 +8496,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -8480,7 +8525,7 @@
         <v>27</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -8551,7 +8596,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -8574,16 +8619,16 @@
         <v>73</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -8591,7 +8636,7 @@
       </c>
       <c r="P78" s="2"/>
       <c r="Q78" t="s" s="2">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="R78" t="s" s="2">
         <v>73</v>
@@ -8633,7 +8678,7 @@
         <v>73</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>79</v>
@@ -8648,12 +8693,12 @@
         <v>73</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -8676,13 +8721,13 @@
         <v>73</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -8733,7 +8778,7 @@
         <v>73</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>74</v>
@@ -8745,15 +8790,15 @@
         <v>73</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -8776,16 +8821,16 @@
         <v>73</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
@@ -8835,7 +8880,7 @@
         <v>73</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>79</v>
@@ -8850,12 +8895,12 @@
         <v>73</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -8878,13 +8923,13 @@
         <v>73</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -8935,7 +8980,7 @@
         <v>73</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>74</v>
@@ -8947,10 +8992,10 @@
         <v>73</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/branches/master/StructureDefinition-rendering-settings.xlsx
+++ b/branches/master/StructureDefinition-rendering-settings.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T13:14:35+00:00</t>
+    <t>2022-05-04T18:39:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
